--- a/프로그래머 레벨체크.xlsx
+++ b/프로그래머 레벨체크.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K\Documents\GitHub\FineLab-Web\FineLab-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD350A4F-11CD-414C-A614-E7904168127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3818873-A996-40BA-A233-544E1DFD2201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{10BA84EE-B79B-487E-B980-9FE6202E7B5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
   <si>
     <t>원문 : http://sijinjoseph.com/programmer-competency-matrix/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,713 @@
   <si>
     <t>트리, 그래프, 간단한 분할 정복 알고리즘을
 이해할 수 있고 이 레벨의 다른 내용과의 연관성을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 자료 구조 (B-트리, binomial and fibonacci heaps,
+AVL/Red Black trees, Splay Trees, Skip Lists, tries 등)에 대한
+지식이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 프로그래밍 솔루션을 이해하고 코딩할 수 있다.
+그래프 알고리즘에 대해서 잘 안다.
+수치 계산 알고리즘에 대해서 잘 안다.
+NP 문제를 식별할 수 있다.
+기타 등등…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 프로그래밍 스택과 하드웨어
+(CPU + 메모리 + 캐시 + 인터럽트 + 마이크로 코드),
+바이너리 코드, 어셈블리, 정적 혹은 동적 링크,
+compliation, interpertaton, JIT compilation,
+가비지 컬렉션, 힙, 스택, 메모리 어드레싱 등에
+대해서 이해하고 있으며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑 수준의 코더와 함께 일한다는 건
+믿을 수 없을 정도의 행운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커널 모드와 유저모드, 멀티쓰레딩, synchronization primitives 등을
+이해하고 있고, 어떻게 구현되었는지 알고 있으며,
+어셈블리 코드를 읽을 수 있어야 한다.
+네트워크가 어떻게 동작하는지 이해하고 있고,
+네트워크 프로토콜과 소켓 레벨 프로그래밍에 대해서 알고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 엔지니어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 코드와
+버전 컨트롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 별로 폴더 백업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE에서 빌드하는 법 밖에 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트는 테스터가 해야 할
+일이라고만 생각한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS와 CVS/SVN을 시작하는 유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커맨드 창에서 빌드하는 법을 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전의 코드에 대해서 자동 유닛 테스트를 작성해 보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVS와 SVN의 사용에 능숙하다.
+Branch와 merge 등의 사용법에 대해서 안다.
+(본문에는 use patches setup repository properties가
+포함되어 있는데 모르니 패스합니다 -_-;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 시스템을 빌드하는 스크립트를 만들 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDD 매너에서 코드를 작성해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산 VCS 시스템에 대해서 안다.
+Bzr / 머큐리얼 / Darcs / Git을 해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템과 문서, 설치 파일, 릴리즈 문서와
+소스 컨트롤의 코드 태그 등을 만드는 스크립트를 만들 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동화된 함수나 불러오기 성능, UI 테스트 등을
+이해하고 만들 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니케이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 내부의
+코드 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일간 코드
+구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 트리
+구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 가독성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어적 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용하기 위해서 복붙하는
+법밖에 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 파일 / 클래스를 벗어나지 못하낟.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료에게 자신의 생각이나
+아이디어를 전달할 수 없다.
+맞춤법과 문법이 심히 좋지 않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런거 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봐도 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 하나에 전부 넣는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 단어 하나로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 자체를 이해를 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 되기를 빈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분 텍스트 편집하기 위해서 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 함수 내부에서 문제를 해결할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 플랫폼 / 기술 내에서 문제 해결과 솔루션
+디자인이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료가 말한 것을 이해할 수 있다.
+맞춤법과 문법이 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메소드가 논리적 혹은 접근성으로 그룹 지어져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련된 파일들은 같은 폴더 내부에 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 별로 코드를 분리해 놓았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일, 함수, 클래스, 메소드에 좋은 이름을 지어주었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 인자를 확인하고, 코드의 위험한 부분에 대해서 경고한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 에러 처리를 한다.
+Throw exception과 에러 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스에 대해서 알고 메뉴를 사용해서
+IDE를 효율적으로 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 가능한 함수 / 오브젝트를 다룰 수 있고,
+그와 관련된 문제들을 해결할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 기술 / 플랫폼에 걸쳐서 시스템 디자인이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료와 효율적으로 대화가 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드는 region에 의해 그룹화되어 있으며,
+다른 소스 파일에 대한 참조에 주석을 잘 달아 놓았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 물리적인 파일은 고유한 목적을 가지고 있다.
+예를 들면 하나의 클래스 라든지 하나의 기능 구현 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순환 종속 없음, 바이너리, 라이브러리, 문서,
+빌드, 3자 코드들이 적절한 폴더로 구성되어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환 값을 확인하고 코드에서 일어날 수 있는
+전반적인 에러에 대해 검사한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램의 상태와 리소스, 연결이 좋고 메모리가
+모두 청소되어 있다면 에러 / 예외 처리는 프로그램에 맡긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분의 명령에 대한 키보드 단축키를 알고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절한 데이터 구조와 알고리즘을 사용하고,
+뭔가 바꿔야 될 문제점을 캡슐화시키는 식의
+일반적 / 객체지향적인 코드를 작성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다수의 제품 라인과 외부 시스템과 통합된 복잡한 시스템을
+시각화 및 디자인 할 수 있다.
+또한 모니터링, 보고, fail over와 같은 작업 지원 시스템을
+설계할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각 / 디자인 / 아이디어 / 스펙 등을 좋은 방식으로 이야기해서
+이해하게 할 수 있고, 상황에 따라서 대화를 조절할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일은 라이선스 헤더, 요약, 적절한 주석,
+일괄적인 공백 사용이 잘 되어 있다. 보기에 매우 아름답다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적 레벨에서의 코드 구성은 디자인과 일치하며
+파일 이름과 폴더 분포를 보는 것으로
+디자인이 무엇인지 깨달을 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스 트리의 물리적 레이아웃은 논리 계층 및 구성과 일치한다.
+디렉토리 이름과 구성은 시스템의 디자인이 무엇인지
+깨달을 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가설 코드는 asset를 사용하여 검증되어 있다.
+코드는 자연스럽게 흐르며 조건문이나 메소드가
+깊게 중첩되어 있지 않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어적 코딩을 돕고 실수를 시뮬레이팅하는 유닛 테스트를
+작성하는 자신만의 라이브러리를 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 일어난 가능한 예외들을 검출하는 코드가
+코드의 모든 계층에서 일괄된 예외처리 전략을 유지하고,
+전체 시스템에 대한 예외 처리 지침을 마련한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀 매크로를 작성해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 프로그램을 평가하는데 자주 사용되지만
+아주 중요한 것들입니다.
+영어가 모국어가 아닌 곳으로의 외주가 점점 늘어나면서
+이 문제는 더 눈에 띄고 있습니다.
+프로그래머가 커뮤니케이션의 의도를 알지 못해
+실패한 프로젝트를 여럿 알고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 문서를 집중해서 봐야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어 플랫폼 외부의 프레임워크를 써본 적 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 받은 대로 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립팅 툴 따위 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀이 DB라는건 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 사용하는 API를 기억하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어보기는 했지만 써보지는 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 사항에서 빠진 부분에 대한 질문을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch 파일 / 셀 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 데이터베이스 개념, 정규화 ACID,
+트랜잭션을 알고 간단한 select를 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API에 대한 광범위하고 깊은 지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문적으로 하나 이상의 프레임워크를 사용해본 적이 있으며,
+프레임워크의 숙어가 익숙하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 그림을 이해할 수 있고, 전체 부분에서
+필요한 것이 무엇인지 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펄 / 파이썬 / 루비 / VB스크립트 / 파워쉘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행될 쿼리, 능숙한 뷰 사용, 저장 프로시져,
+트리거 및 사용자 정의 유형을 염두에 두고
+정규화된 좋은 데이터베이스를 디자인할 수 있다.
+클러스터와 논 클러스터 인덱스간의 차이를 알고 있다.
+ORM 툴의 사용에 능숙하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 사용하는 작업을 단순화하고 API의 공백을
+채우기 위해서 API의 상단에 라이브러리를 작성해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크 저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 대안을 제시할 수 있고, 경험을 바탕으로
+주어진 요구 사항에 맞추어 진행할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재 사용 가능한 코드를 작성하고 배포해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 데이터베이스 관리, 성능 최적화,
+인덱스 최적화, 고급 select 쿼리 작성, 관계형 sql로
+커서 사용을 대체 가능, 내부 데이터 저장 방식 이해,
+인덱스 내부 저장 방식 이해,
+데이터베이스 미러링 혹은 복제 방법 이해 등이 가능하다.
+2 단계 커밋이 어떻게 동작하는지 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API의 예라면 자바 라이브러리, 닷넷 프레임워크나
+애플리케이션을 위한 커스텀 API 등이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 함수, 묘한 코드에 대해 설명하는 주석,
+버그 수정, 가설 코드가 없다.
+가설 코드(code assumptions, 동작이 제대로 되는지 어떤지
+확인되지 않은 코드라고 이해하시면 되겠습니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문적으로
+경험한 언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문적으로
+경험해본
+플랫폼 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 경험을
+쌓은 연수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 지향 아니면 절차 지향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인이 뭔지 잘 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절차 지향, 객체 지향 및 선언 (SQL), static과
+동적 타이핑, weak와 strong 타이핑 및 정적 추론 유형인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수형 프로그래밍, 느긋한 계산법, 커링,
+continuations을 알고 있다면 보너스 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concurrent (Erlang, Oz) 와 로직 (Prolog)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인에서 최소 하나의 제품에서 일해봤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 도메인에서 여러 제품으로 작업해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 전문가. 도메인에서 여러 제품 / 솔루션을
+디자인하고 구현해보았다. 도메인에서 사용하는
+표준 용어, 프로토콜에 능숙하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴 지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 베이스
+지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차세대 기술에
+대한 지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 내부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 IDE에 대한 기초적인 것만 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 베이스에 대해 자세히 본적이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어본 적도 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21일 만에 배우는 xxx 같은 것들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어는 봤지만 할 시간은 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유명한 툴의 대용품과 기본적인 툴을 알고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 레이아웃에 대한 기본적인 지식과 시스템을
+짜는 방법을 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장에서 차후 사용될 기술에 대해 들어봤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼이 내부에서 어떻게 동작하는지 기본적인건 안다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 완성하기, 생각하지 않게 하기, 정규식 표현 마스터하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 / 프로그래밍 / 소프트웨어 엔지니어링
+블로그를 읽고 팟캐스트를 규칙적으로 듣는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터, 디버거, IDE, 대신할만한 오픈 소스 등에 대해서 잘 알고 있다.
+ORM 툴을 사용해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 베이스에 대해서 잘 알고 몇 가지 버그를
+수정하거나 몇몇 작은 기능을 추가해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파 프리뷰 / CTP / 베타를 다운로드 받아보았고,
+몇몇 기사 / 매뉴얼을 읽어보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 내부에 대해 깊게 알고 있으며 프로그램이 어떻게 돌아가는지
+시각화할 수 있으며 그것을 실행 가능한 코드로 변환할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 패턴, peopleware, 펄 프로그래밍, 알고리즘 디자인 매뉴얼,
+실용주의 프로그래머, Mythical Man month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유용한 기사와 툴을 모아 놓은 블로그를 즐겨찾기 해두었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴과 스크립트를 실제로 작성해보았다.
+(출시해봤다면 보너스 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇몇 큰 기능을 코드 베이스에 추가해보았고,
+주요 기능의 변경점이나 버그 픽스에 대해서 쉽게
+시각화할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리뷰를 돌려보았고 실제로 빌드해보았으며
+다른 사람에게 그것을 공유해보았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼 내부에 대한 정보를 제공하거나
+성능을 증가시키는 툴을 작성해보았다.
+예를 들면 디스어셈블러, 디컴파일러, 디버거 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 프로그램의 구조와 해석, 기술 컨셉,
+컴퓨터 프로그래밍의 모델, 컴퓨터 프로그래밍 아트,
+데이터베이스 시스템, Thinking Forth, Little Schemer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍에 대한 개인적인 시각과 생각을
+공유하는 블로그를 본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞의 항목과의 차이는 구조의 규모,
+소스 시스템을 정의하는 전반적인 아티펙트들의 세트와
+관련된 트리 구조이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +836,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +852,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +878,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -177,24 +901,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,52 +1255,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9B2754-86C3-42B0-9AE4-F68F95E0B92A}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" customWidth="1"/>
-    <col min="4" max="4" width="65.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
@@ -575,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -588,10 +1336,12 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="72.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,10 +1354,14 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.45">
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -617,14 +1371,629 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="58" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="87" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="43.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
